--- a/游戏库.xlsx
+++ b/游戏库.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原型分析" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>是男人就撑过20秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,12 +182,71 @@
     <t>操控对象的行为与游戏环境的交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>操控的主体</t>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃 - 距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形变 - 长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互动目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估改进操作的依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响到主体的行为 / 变化维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次的表现，时间感觉和听觉对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳一跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐游戏按压长音符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +273,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -259,30 +328,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,8 +376,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>456565</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2513965" cy="4190365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,23 +493,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,23 +528,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -649,49 +731,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -731,10 +813,10 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -772,7 +854,7 @@
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -786,10 +868,10 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -802,4 +884,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.75" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/游戏库.xlsx
+++ b/游戏库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="原型分析" sheetId="5" r:id="rId1"/>
@@ -350,14 +350,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,47 +374,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>456565</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2513965" cy="4190365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,16 +690,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -890,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +906,7 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
@@ -981,6 +940,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>